--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_Sưaduan_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_Sưaduan_ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6855B3C7-D670-41BB-9418-734342931D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6411D201-6F3E-4FD4-AFAE-CE24EE17144F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="200">
   <si>
     <t>Author</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t xml:space="preserve">hiễn thị thông báo sửa dự án  thành công </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiểm tra hiện thị giao diện danh sách dự án bao gồm các trường thông tin : tên đăng nhập , mật khẩu , SDT, email , ngày sinh , địa chỉ , chức vụ , phòng ban ,doanh số , trạng thái </t>
   </si>
   <si>
     <t xml:space="preserve">Trong danh sách các dự án </t>
@@ -724,12 +721,6 @@
     <t>TC-BDS-TDA-14</t>
   </si>
   <si>
-    <t>TC-BDS-TDA-14.1</t>
-  </si>
-  <si>
-    <t>TC-BDS-TDA-14.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Không sửa được hình ảnh vì không đúng tệp png , jpg </t>
   </si>
   <si>
@@ -743,6 +734,52 @@
   </si>
   <si>
     <t>Nhấn "sửa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường thông tin giá tiền bắt buộc phải là số </t>
+  </si>
+  <si>
+    <t>TR-BDS-SDA-15</t>
+  </si>
+  <si>
+    <t>TC-BDS-TDA-15</t>
+  </si>
+  <si>
+    <t>TC-BDS-TDA-16</t>
+  </si>
+  <si>
+    <t>TC-BDS-SDA-17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> tên : dự án chung cư Tam phú 
+- vị trí : 45 Cây keo , q Thủ đức 
+- giá : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 tỷ 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhấn " Lưu  "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hệ thống thông báo " lưu thành công " </t>
+  </si>
+  <si>
+    <t>faill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Trường thông tin giá tiền bắt buộc phải là số </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm tra hiện thị giao diện danh sách dự án bao gồm các trường thông tin : tên đăng nhập , mật khẩu , SDT, email , ngày sinh , địa chỉ , chức vụ , phòng ban ,doanh số , trạng thái sau khi sửa  </t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1565,6 +1602,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,36 +1716,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1715,6 +1761,18 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1724,25 +1782,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2084,31 +2130,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -2129,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>54</v>
@@ -2185,21 +2231,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2208,40 +2254,40 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2280,10 +2326,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2300,80 +2346,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66">
         <v>43588</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2636,13 +2682,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>35</v>
@@ -2652,16 +2698,16 @@
       </c>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>12</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="16" t="s">
-        <v>169</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>37</v>
@@ -2671,6 +2717,26 @@
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>12</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2719,11 +2785,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55:D63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E82:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2741,17 +2807,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2786,59 +2852,59 @@
         <v>4</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="99"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
+      <c r="A5" s="92">
         <v>1</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="89" t="s">
-        <v>139</v>
+      <c r="E5" s="90" t="s">
+        <v>138</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="38"/>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="101" t="s">
-        <v>160</v>
+      <c r="J5" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="90"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
@@ -2849,14 +2915,14 @@
       <c r="I6" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="102"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
@@ -2867,50 +2933,50 @@
       <c r="I7" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="102"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:10" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="102"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="90"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="44">
         <v>5</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="102"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="90"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="91"/>
       <c r="F10" s="44">
         <v>6</v>
       </c>
@@ -2923,14 +2989,14 @@
       <c r="I10" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="102"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="90"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="44">
         <v>7</v>
       </c>
@@ -2943,14 +3009,14 @@
       <c r="I11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="102"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="90"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="44"/>
       <c r="G12" s="42" t="s">
         <v>72</v>
@@ -2959,14 +3025,14 @@
       <c r="I12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="102"/>
+      <c r="J12" s="101"/>
     </row>
     <row r="13" spans="1:10" s="43" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="90"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="91"/>
       <c r="F13" s="44">
         <v>8</v>
       </c>
@@ -2975,46 +3041,46 @@
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="92">
+        <v>1</v>
+      </c>
+      <c r="B14" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="103"/>
-    </row>
-    <row r="14" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81">
-        <v>1</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="89" t="s">
-        <v>139</v>
+      <c r="E14" s="90" t="s">
+        <v>138</v>
       </c>
       <c r="F14" s="44">
         <v>1</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="38"/>
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="101" t="s">
-        <v>160</v>
+      <c r="J14" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="90"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="44">
         <v>2</v>
       </c>
@@ -3025,14 +3091,14 @@
       <c r="I15" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J15" s="102"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="16" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="90"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="91"/>
       <c r="F16" s="44">
         <v>3</v>
       </c>
@@ -3043,50 +3109,50 @@
       <c r="I16" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="102"/>
+      <c r="J16" s="101"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="90"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="44">
         <v>4</v>
       </c>
       <c r="G17" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="102"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="90"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="44">
         <v>5</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="102"/>
+      <c r="J18" s="101"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="90"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="44">
         <v>6</v>
       </c>
@@ -3099,14 +3165,14 @@
       <c r="I19" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="102"/>
+      <c r="J19" s="101"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="90"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="44">
         <v>7</v>
       </c>
@@ -3119,23 +3185,23 @@
       <c r="I20" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="103"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81">
+      <c r="A21" s="92">
         <v>1</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="87" t="s">
+      <c r="C21" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="89" t="s">
-        <v>139</v>
+      <c r="E21" s="90" t="s">
+        <v>138</v>
       </c>
       <c r="F21" s="44">
         <v>1</v>
@@ -3144,17 +3210,19 @@
         <v>58</v>
       </c>
       <c r="H21" s="38"/>
-      <c r="I21" s="100" t="s">
+      <c r="I21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="101"/>
+      <c r="J21" s="100" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="22" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="90"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="44">
         <v>2</v>
       </c>
@@ -3165,14 +3233,14 @@
       <c r="I22" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="102"/>
+      <c r="J22" s="101"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="90"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="44">
         <v>3</v>
       </c>
@@ -3183,50 +3251,50 @@
       <c r="I23" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="102"/>
-    </row>
-    <row r="24" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
+      <c r="J23" s="101"/>
+    </row>
+    <row r="24" spans="1:10" s="43" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="93"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="44">
         <v>4</v>
       </c>
       <c r="G24" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="I24" s="33"/>
-      <c r="J24" s="102"/>
+      <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="90"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="44">
         <v>5</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="102"/>
+      <c r="J25" s="101"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="90"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="91"/>
       <c r="F26" s="44">
         <v>6</v>
       </c>
@@ -3239,14 +3307,14 @@
       <c r="I26" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="102"/>
+      <c r="J26" s="101"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="90"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="44">
         <v>7</v>
       </c>
@@ -3259,14 +3327,14 @@
       <c r="I27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="102"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="90"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="44"/>
       <c r="G28" s="42" t="s">
         <v>73</v>
@@ -3275,44 +3343,44 @@
       <c r="I28" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="103"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81">
+      <c r="A29" s="92">
         <v>1</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="90" t="s">
         <v>144</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="89" t="s">
-        <v>145</v>
       </c>
       <c r="F29" s="44">
         <v>1</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="38"/>
-      <c r="I29" s="100" t="s">
+      <c r="I29" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="101" t="s">
-        <v>161</v>
+      <c r="J29" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="90"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="44">
         <v>2</v>
       </c>
@@ -3323,14 +3391,14 @@
       <c r="I30" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="102"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="90"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="91"/>
       <c r="F31" s="44">
         <v>3</v>
       </c>
@@ -3339,50 +3407,50 @@
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="33"/>
-      <c r="J31" s="102"/>
+      <c r="J31" s="101"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="90"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="91"/>
       <c r="F32" s="44">
         <v>4</v>
       </c>
       <c r="G32" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="I32" s="33"/>
-      <c r="J32" s="102"/>
+      <c r="J32" s="101"/>
     </row>
     <row r="33" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="90"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="91"/>
       <c r="F33" s="44">
         <v>5</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="40"/>
       <c r="I33" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="102"/>
+      <c r="J33" s="101"/>
     </row>
     <row r="34" spans="1:10" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="90"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="44">
         <v>6</v>
       </c>
@@ -3395,14 +3463,14 @@
       <c r="I34" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="102"/>
+      <c r="J34" s="101"/>
     </row>
     <row r="35" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="90"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="91"/>
       <c r="F35" s="44">
         <v>7</v>
       </c>
@@ -3415,14 +3483,14 @@
       <c r="I35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="102"/>
+      <c r="J35" s="101"/>
     </row>
     <row r="36" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="90"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="44">
         <v>8</v>
       </c>
@@ -3431,138 +3499,138 @@
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="J36" s="103"/>
+        <v>184</v>
+      </c>
+      <c r="J36" s="102"/>
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81">
+      <c r="A37" s="92">
         <v>1</v>
       </c>
-      <c r="B37" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="89" t="s">
+      <c r="B37" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="G37" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="41" t="s">
-        <v>172</v>
-      </c>
       <c r="H37" s="38"/>
-      <c r="I37" s="100" t="s">
+      <c r="I37" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="101" t="s">
-        <v>160</v>
+      <c r="J37" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="90"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="44">
         <v>2</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="102"/>
+      <c r="J38" s="101"/>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="90"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="44">
         <v>3</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="J39" s="102"/>
+        <v>187</v>
+      </c>
+      <c r="J39" s="101"/>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="90"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="44">
         <v>4</v>
       </c>
       <c r="G40" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="H40" s="40" t="s">
-        <v>175</v>
-      </c>
       <c r="I40" s="33"/>
-      <c r="J40" s="102"/>
+      <c r="J40" s="101"/>
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="90"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="91"/>
       <c r="F41" s="44">
         <v>6</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" s="40"/>
       <c r="I41" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="102"/>
+      <c r="J41" s="101"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="90"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="44">
         <v>7</v>
       </c>
       <c r="G42" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="I42" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="I42" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J42" s="102"/>
+      <c r="J42" s="101"/>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="90"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="91"/>
       <c r="F43" s="44">
         <v>8</v>
       </c>
@@ -3573,170 +3641,170 @@
       <c r="I43" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="102"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="90"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="91"/>
       <c r="F44" s="44">
         <v>9</v>
       </c>
       <c r="G44" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="40" t="s">
-        <v>180</v>
-      </c>
       <c r="I44" s="33"/>
-      <c r="J44" s="102"/>
+      <c r="J44" s="101"/>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="90"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="91"/>
       <c r="F45" s="44">
         <v>10</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="J45" s="103"/>
+        <v>180</v>
+      </c>
+      <c r="J45" s="102"/>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81">
+      <c r="A46" s="92">
         <v>1</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="85" t="s">
+      <c r="B46" s="87"/>
+      <c r="C46" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="89" t="s">
+      <c r="E46" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="G46" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="41" t="s">
-        <v>172</v>
-      </c>
       <c r="H46" s="38"/>
-      <c r="I46" s="100" t="s">
+      <c r="I46" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J46" s="101" t="s">
-        <v>161</v>
+      <c r="J46" s="100" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="90"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="91"/>
       <c r="F47" s="44">
         <v>2</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="102"/>
+      <c r="J47" s="101"/>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="82"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="90"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="91"/>
       <c r="F48" s="44">
         <v>3</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H48" s="40"/>
       <c r="I48" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="J48" s="102"/>
+        <v>187</v>
+      </c>
+      <c r="J48" s="101"/>
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="90"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="44">
         <v>4</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I49" s="33"/>
-      <c r="J49" s="102"/>
+      <c r="J49" s="101"/>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="90"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="44">
         <v>6</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H50" s="40"/>
       <c r="I50" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="102"/>
+      <c r="J50" s="101"/>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="90"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="44">
         <v>7</v>
       </c>
       <c r="G51" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="I51" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="I51" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51" s="102"/>
+      <c r="J51" s="101"/>
     </row>
     <row r="52" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="90"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="44">
         <v>8</v>
       </c>
@@ -3747,170 +3815,170 @@
       <c r="I52" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J52" s="102"/>
+      <c r="J52" s="101"/>
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="44">
         <v>9</v>
       </c>
       <c r="G53" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H53" s="40" t="s">
-        <v>180</v>
-      </c>
       <c r="I53" s="33"/>
-      <c r="J53" s="102"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="82"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="90"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="44">
         <v>10</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="J54" s="103"/>
+        <v>180</v>
+      </c>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="81">
+      <c r="A55" s="92">
         <v>1</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="89" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="G55" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="G55" s="41" t="s">
-        <v>172</v>
-      </c>
       <c r="H55" s="38"/>
-      <c r="I55" s="100" t="s">
+      <c r="I55" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J55" s="101" t="s">
-        <v>161</v>
+      <c r="J55" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="82"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="93"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="44">
         <v>2</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J56" s="102"/>
+      <c r="J56" s="101"/>
     </row>
     <row r="57" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="90"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="44">
         <v>3</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H57" s="40"/>
       <c r="I57" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="J57" s="102"/>
+        <v>187</v>
+      </c>
+      <c r="J57" s="101"/>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="90"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="91"/>
       <c r="F58" s="44">
         <v>4</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I58" s="33"/>
-      <c r="J58" s="102"/>
+      <c r="J58" s="101"/>
     </row>
     <row r="59" spans="1:10" s="5" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="90"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="91"/>
       <c r="F59" s="44">
         <v>6</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H59" s="40"/>
       <c r="I59" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J59" s="102"/>
+      <c r="J59" s="101"/>
     </row>
     <row r="60" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="90"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="91"/>
       <c r="F60" s="44">
         <v>7</v>
       </c>
       <c r="G60" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="H60" s="40" t="s">
+      <c r="I60" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="I60" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J60" s="102"/>
+      <c r="J60" s="101"/>
     </row>
     <row r="61" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="90"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="91"/>
       <c r="F61" s="44">
         <v>8</v>
       </c>
@@ -3921,444 +3989,450 @@
       <c r="I61" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J61" s="102"/>
+      <c r="J61" s="101"/>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="90"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="91"/>
       <c r="F62" s="44">
         <v>9</v>
       </c>
       <c r="G62" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H62" s="40" t="s">
-        <v>180</v>
-      </c>
       <c r="I62" s="33"/>
-      <c r="J62" s="102"/>
+      <c r="J62" s="101"/>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="90"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="91"/>
       <c r="F63" s="44">
         <v>10</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="J63" s="103"/>
-    </row>
-    <row r="64" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="99"/>
-    </row>
-    <row r="65" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="81">
-        <v>21</v>
-      </c>
-      <c r="B65" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="87" t="s">
-        <v>145</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J63" s="102"/>
+    </row>
+    <row r="64" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="92">
+        <v>1</v>
+      </c>
+      <c r="B64" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="44">
+        <v>1</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="38"/>
+      <c r="I64" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J64" s="100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="93"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="91"/>
       <c r="F65" s="44">
-        <v>1</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="100" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="G65" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="J65" s="101"/>
     </row>
-    <row r="66" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
+    <row r="66" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="93"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="91"/>
       <c r="F66" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J66" s="101"/>
+    </row>
+    <row r="67" spans="1:10" s="43" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="93"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="44">
+        <v>4</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" s="33"/>
+      <c r="J67" s="101"/>
+    </row>
+    <row r="68" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="93"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="44">
+        <v>5</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="I68" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J68" s="101"/>
+    </row>
+    <row r="69" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="93"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="44">
+        <v>6</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="101"/>
+    </row>
+    <row r="70" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="93"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="44">
+        <v>7</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="101"/>
+    </row>
+    <row r="71" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="93"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J71" s="102"/>
+    </row>
+    <row r="72" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="92">
+        <v>21</v>
+      </c>
+      <c r="B73" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="44">
+        <v>1</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="38"/>
+      <c r="I73" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J73" s="100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="93"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="44">
+        <v>2</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="102"/>
-    </row>
-    <row r="67" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="44">
+      <c r="J74" s="101"/>
+    </row>
+    <row r="75" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="93"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="44">
         <v>3</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G75" s="42" t="s">
         <v>93</v>
-      </c>
-      <c r="H67" s="40"/>
-      <c r="I67" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="J67" s="103"/>
-    </row>
-    <row r="68" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="81">
-        <v>21</v>
-      </c>
-      <c r="B68" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="44">
-        <v>1</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="J68" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="82"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="44">
-        <v>2</v>
-      </c>
-      <c r="G69" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="40"/>
-      <c r="I69" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J69" s="102"/>
-    </row>
-    <row r="70" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="82"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="44">
-        <v>3</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J70" s="103"/>
-    </row>
-    <row r="71" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="81">
-        <v>21</v>
-      </c>
-      <c r="B71" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="F71" s="44">
-        <v>1</v>
-      </c>
-      <c r="G71" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="38"/>
-      <c r="I71" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="J71" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="44">
-        <v>2</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J72" s="102"/>
-    </row>
-    <row r="73" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="44">
-        <v>4</v>
-      </c>
-      <c r="G73" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="J73" s="102"/>
-    </row>
-    <row r="74" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="81">
-        <v>1</v>
-      </c>
-      <c r="B74" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74" s="44">
-        <v>1</v>
-      </c>
-      <c r="G74" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="H74" s="38"/>
-      <c r="I74" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="J74" s="102"/>
-    </row>
-    <row r="75" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="84"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="44">
-        <v>2</v>
-      </c>
-      <c r="G75" s="42" t="s">
-        <v>120</v>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="102"/>
+    </row>
+    <row r="76" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="92">
+        <v>21</v>
+      </c>
+      <c r="B76" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="44">
+        <v>1</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" s="38"/>
+      <c r="I76" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="93"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="44">
+        <v>2</v>
+      </c>
+      <c r="G77" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J75" s="102"/>
-    </row>
-    <row r="76" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="44">
+      <c r="J77" s="101"/>
+    </row>
+    <row r="78" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="93"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="44">
         <v>3</v>
       </c>
-      <c r="G76" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" s="40"/>
-      <c r="I76" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J76" s="102"/>
-    </row>
-    <row r="77" spans="1:10" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="84"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="44">
-        <v>4</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="I77" s="33"/>
-      <c r="J77" s="102"/>
-    </row>
-    <row r="78" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="82"/>
-      <c r="B78" s="84"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="44">
-        <v>5</v>
-      </c>
       <c r="G78" s="42" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J78" s="102"/>
     </row>
-    <row r="79" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="90"/>
+    <row r="79" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="92">
+        <v>21</v>
+      </c>
+      <c r="B79" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="88" t="s">
+        <v>152</v>
+      </c>
       <c r="F79" s="44">
-        <v>6</v>
-      </c>
-      <c r="G79" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I79" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="102"/>
-    </row>
-    <row r="80" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="90"/>
+        <v>1</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="38"/>
+      <c r="I79" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J79" s="100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="93"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
       <c r="F80" s="44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H80" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H80" s="40"/>
       <c r="I80" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J80" s="102"/>
-    </row>
-    <row r="81" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
-      <c r="B81" s="84"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="44"/>
+        <v>113</v>
+      </c>
+      <c r="J80" s="101"/>
+    </row>
+    <row r="81" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="93"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="44">
+        <v>4</v>
+      </c>
       <c r="G81" s="42" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J81" s="103"/>
+        <v>127</v>
+      </c>
+      <c r="J81" s="101"/>
     </row>
     <row r="82" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="92"/>
-      <c r="B82" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="E82" s="91" t="s">
-        <v>153</v>
+      <c r="A82" s="92">
+        <v>1</v>
+      </c>
+      <c r="B82" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="90" t="s">
+        <v>152</v>
       </c>
       <c r="F82" s="44">
         <v>1</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H82" s="38"/>
-      <c r="I82" s="100" t="s">
+      <c r="I82" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J82" s="101" t="s">
+      <c r="J82" s="106" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="86"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
+      <c r="A83" s="93"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="91"/>
       <c r="F83" s="44">
         <v>2</v>
       </c>
@@ -4366,291 +4440,291 @@
         <v>120</v>
       </c>
       <c r="H83" s="40"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="102"/>
-    </row>
-    <row r="84" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="86"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
+      <c r="I83" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J83" s="107"/>
+    </row>
+    <row r="84" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="93"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="91"/>
       <c r="F84" s="44">
         <v>3</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J84" s="103"/>
-    </row>
-    <row r="85" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="81">
-        <v>1</v>
-      </c>
-      <c r="B85" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="89" t="s">
-        <v>153</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J84" s="107"/>
+    </row>
+    <row r="85" spans="1:10" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="93"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="91"/>
       <c r="F85" s="44">
-        <v>1</v>
-      </c>
-      <c r="G85" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="H85" s="38"/>
-      <c r="I85" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="J85" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="82"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="90"/>
+      <c r="H85" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85" s="33"/>
+      <c r="J85" s="107"/>
+    </row>
+    <row r="86" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="93"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="91"/>
       <c r="F86" s="44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86" s="42" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J86" s="102"/>
-    </row>
-    <row r="87" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="90"/>
+        <v>65</v>
+      </c>
+      <c r="J86" s="107"/>
+    </row>
+    <row r="87" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="93"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G87" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H87" s="40"/>
+        <v>68</v>
+      </c>
+      <c r="H87" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="I87" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="J87" s="102"/>
-    </row>
-    <row r="88" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="90"/>
+        <v>91</v>
+      </c>
+      <c r="J87" s="107"/>
+    </row>
+    <row r="88" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="93"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="91"/>
       <c r="F88" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G88" s="42" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="102"/>
-    </row>
-    <row r="89" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="97"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="44">
-        <v>6</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J88" s="107"/>
+    </row>
+    <row r="89" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="93"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="44"/>
       <c r="G89" s="42" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J89" s="102"/>
-    </row>
-    <row r="90" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="97"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="90"/>
+        <v>128</v>
+      </c>
+      <c r="J89" s="108"/>
+    </row>
+    <row r="90" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="95"/>
+      <c r="B90" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="94" t="s">
+        <v>152</v>
+      </c>
       <c r="F90" s="44">
-        <v>7</v>
-      </c>
-      <c r="G90" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="I90" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J90" s="102"/>
-    </row>
-    <row r="91" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="97"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="90"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H90" s="38"/>
+      <c r="I90" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J90" s="101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="87"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
       <c r="F91" s="44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H91" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I91" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J91" s="102"/>
-    </row>
-    <row r="92" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
-      <c r="B92" s="97"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="90"/>
+        <v>120</v>
+      </c>
+      <c r="H91" s="40"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="101"/>
+    </row>
+    <row r="92" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="87"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
       <c r="F92" s="44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J92" s="103"/>
+        <v>113</v>
+      </c>
+      <c r="J92" s="102"/>
     </row>
     <row r="93" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="81">
+      <c r="A93" s="92">
         <v>1</v>
       </c>
-      <c r="B93" s="97"/>
-      <c r="C93" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" s="87" t="s">
+      <c r="B93" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="E93" s="89" t="s">
-        <v>153</v>
+      <c r="E93" s="90" t="s">
+        <v>152</v>
       </c>
       <c r="F93" s="44">
         <v>1</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H93" s="38"/>
-      <c r="I93" s="100" t="s">
+      <c r="I93" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J93" s="101"/>
+      <c r="J93" s="100" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="94" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="90"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="91"/>
       <c r="F94" s="44">
         <v>2</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H94" s="40"/>
       <c r="I94" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J94" s="102"/>
+      <c r="J94" s="101"/>
     </row>
     <row r="95" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="90"/>
+      <c r="A95" s="93"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="91"/>
       <c r="F95" s="44">
         <v>4</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H95" s="40"/>
       <c r="I95" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="J95" s="102"/>
+      <c r="J95" s="101"/>
     </row>
     <row r="96" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
-      <c r="B96" s="97"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="90"/>
+      <c r="A96" s="93"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="91"/>
       <c r="F96" s="44">
         <v>5</v>
       </c>
       <c r="G96" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H96" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="I96" s="33"/>
-      <c r="J96" s="102"/>
+      <c r="J96" s="101"/>
     </row>
     <row r="97" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
-      <c r="B97" s="97"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="90"/>
+      <c r="A97" s="93"/>
+      <c r="B97" s="104"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="91"/>
       <c r="F97" s="44">
         <v>6</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H97" s="40"/>
       <c r="I97" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J97" s="102"/>
+      <c r="J97" s="101"/>
     </row>
     <row r="98" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="82"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="90"/>
+      <c r="A98" s="93"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="91"/>
       <c r="F98" s="44">
         <v>7</v>
       </c>
@@ -4658,19 +4732,19 @@
         <v>67</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I98" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="J98" s="102"/>
+      <c r="J98" s="101"/>
     </row>
     <row r="99" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="88"/>
-      <c r="E99" s="90"/>
+      <c r="A99" s="93"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="91"/>
       <c r="F99" s="44">
         <v>8</v>
       </c>
@@ -4683,14 +4757,14 @@
       <c r="I99" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J99" s="102"/>
+      <c r="J99" s="101"/>
     </row>
     <row r="100" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
-      <c r="B100" s="98"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="90"/>
+      <c r="A100" s="93"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="91"/>
       <c r="F100" s="44">
         <v>9</v>
       </c>
@@ -4699,184 +4773,350 @@
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J100" s="103"/>
+        <v>86</v>
+      </c>
+      <c r="J100" s="102"/>
     </row>
     <row r="101" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="81">
+      <c r="A101" s="92">
         <v>1</v>
       </c>
-      <c r="B101" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="D101" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" s="89" t="s">
-        <v>153</v>
+      <c r="B101" s="104"/>
+      <c r="C101" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" s="90" t="s">
+        <v>152</v>
       </c>
       <c r="F101" s="44">
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="H101" s="38"/>
-      <c r="I101" s="100" t="s">
+      <c r="I101" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J101" s="101" t="s">
-        <v>160</v>
+      <c r="J101" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="90"/>
+      <c r="A102" s="93"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="91"/>
       <c r="F102" s="44">
         <v>2</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H102" s="40"/>
       <c r="I102" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J102" s="102"/>
+      <c r="J102" s="101"/>
     </row>
     <row r="103" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="90"/>
+      <c r="A103" s="93"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="91"/>
       <c r="F103" s="44">
         <v>4</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H103" s="40"/>
       <c r="I103" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="J103" s="103"/>
-    </row>
-    <row r="104" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="81">
-        <v>1</v>
-      </c>
-      <c r="B104" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="D104" s="87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E104" s="89" t="s">
-        <v>153</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J103" s="101"/>
+    </row>
+    <row r="104" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="93"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="91"/>
       <c r="F104" s="44">
-        <v>1</v>
-      </c>
-      <c r="G104" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H104" s="38"/>
-      <c r="I104" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="J104" s="101" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="90"/>
+        <v>5</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="101"/>
+    </row>
+    <row r="105" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="93"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="91"/>
       <c r="F105" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H105" s="40"/>
       <c r="I105" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J105" s="101"/>
+    </row>
+    <row r="106" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="93"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="44">
+        <v>7</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I106" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J106" s="101"/>
+    </row>
+    <row r="107" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="93"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="87"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="44">
+        <v>8</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H107" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I107" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J107" s="101"/>
+    </row>
+    <row r="108" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="93"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="44">
+        <v>9</v>
+      </c>
+      <c r="G108" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" s="40"/>
+      <c r="I108" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J108" s="102"/>
+    </row>
+    <row r="109" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="92">
+        <v>1</v>
+      </c>
+      <c r="B109" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F109" s="44">
+        <v>1</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" s="38"/>
+      <c r="I109" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J109" s="100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="93"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="44">
+        <v>2</v>
+      </c>
+      <c r="G110" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H110" s="40"/>
+      <c r="I110" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J105" s="102"/>
-    </row>
-    <row r="106" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
-      <c r="B106" s="84"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="44">
+      <c r="J110" s="101"/>
+    </row>
+    <row r="111" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="93"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="91"/>
+      <c r="F111" s="44">
         <v>4</v>
       </c>
-      <c r="G106" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H106" s="40"/>
-      <c r="I106" s="33" t="s">
+      <c r="G111" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" s="40"/>
+      <c r="I111" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="J106" s="103"/>
+      <c r="J111" s="102"/>
+    </row>
+    <row r="112" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="92">
+        <v>1</v>
+      </c>
+      <c r="B112" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="E112" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F112" s="44">
+        <v>1</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="38"/>
+      <c r="I112" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J112" s="100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="93"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="87"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="44">
+        <v>2</v>
+      </c>
+      <c r="G113" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H113" s="40"/>
+      <c r="I113" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J113" s="101"/>
+    </row>
+    <row r="114" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="93"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="87"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="91"/>
+      <c r="F114" s="44">
+        <v>4</v>
+      </c>
+      <c r="G114" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H114" s="40"/>
+      <c r="I114" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J114" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J74:J81"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="J85:J92"/>
+  <mergeCells count="102">
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="D64:D71"/>
+    <mergeCell ref="E64:E71"/>
+    <mergeCell ref="J64:J71"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J82:J89"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="D101:D108"/>
+    <mergeCell ref="E101:E108"/>
+    <mergeCell ref="B93:B108"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="J90:J92"/>
     <mergeCell ref="J93:J100"/>
+    <mergeCell ref="J101:J108"/>
     <mergeCell ref="J5:J13"/>
     <mergeCell ref="J14:J20"/>
     <mergeCell ref="J21:J28"/>
     <mergeCell ref="J29:J36"/>
-    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J73:J75"/>
     <mergeCell ref="J37:J45"/>
     <mergeCell ref="J46:J54"/>
     <mergeCell ref="J55:J63"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="E93:E100"/>
-    <mergeCell ref="B85:B100"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="D85:D92"/>
-    <mergeCell ref="E85:E92"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A101:A108"/>
+    <mergeCell ref="C101:C108"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="C82:C89"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="B37:B63"/>
     <mergeCell ref="C37:C45"/>
@@ -4887,25 +5127,22 @@
     <mergeCell ref="D46:D54"/>
     <mergeCell ref="E46:E54"/>
     <mergeCell ref="A55:A63"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="D74:D81"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
     <mergeCell ref="C55:C63"/>
     <mergeCell ref="D55:D63"/>
     <mergeCell ref="E55:E63"/>
-    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A72:I72"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="C29:C36"/>
     <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="D76:D78"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B20"/>
+    <mergeCell ref="A64:A71"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="E14:E20"/>
@@ -4916,23 +5153,24 @@
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="D21:D28"/>
     <mergeCell ref="E21:E28"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E74:E81"/>
-    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E82:E89"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D82:D89"/>
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:D13"/>
     <mergeCell ref="E5:E13"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="A109:A111"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
